--- a/Work example/Elibrary parser input template.xlsx
+++ b/Work example/Elibrary parser input template.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\elibrary-parser\Input file template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F831C29-F946-4468-8E53-BE018BCB4DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15490" yWindow="7580" windowWidth="21300" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15492" yWindow="7584" windowWidth="21300" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Elibrary Parser Input File</t>
   </si>
@@ -61,12 +55,15 @@
   </si>
   <si>
     <t>Уфа</t>
+  </si>
+  <si>
+    <t>Глебов Сергей Геннадьевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -233,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,39 +407,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -450,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -473,12 +470,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
